--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225200.1934851568</v>
+        <v>-227664.2569288612</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>292.4334785682629</v>
       </c>
       <c r="F2" t="n">
-        <v>86.98391220200952</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>289.2294861915378</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>15.93912862524132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>62.95433966001244</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>213.4383553921874</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>44.37321050886562</v>
+        <v>116.0403389961687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,7 +953,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>172.4753826448975</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>41.76893063678249</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>249.6493554732372</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>96.33842426846215</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,10 +1297,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>89.20169462074659</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>167.9147108787905</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>38.61213096654735</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>243.1373908222617</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>166.5507736588104</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>115.6949510903007</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819362</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060585</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.02686156550228</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>46.15319674220952</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>198.6492978738575</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>156.8624097380494</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>80.33989744908978</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881292</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022.044071462145</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C2" t="n">
-        <v>1653.081554521733</v>
+        <v>1012.316163281157</v>
       </c>
       <c r="D2" t="n">
-        <v>1294.815855914983</v>
+        <v>654.0504646744064</v>
       </c>
       <c r="E2" t="n">
-        <v>909.0276033167384</v>
+        <v>358.6631125852519</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>358.6631125852519</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>358.6631125852519</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W2" t="n">
-        <v>2408.643911526266</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X2" t="n">
-        <v>2408.643911526266</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y2" t="n">
-        <v>2408.643911526266</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>826.5851666348717</v>
+        <v>2141.036149151603</v>
       </c>
       <c r="C4" t="n">
-        <v>657.6489837069648</v>
+        <v>2141.036149151603</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946291</v>
+        <v>1990.919509739268</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>1843.006416156874</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>1696.116468658964</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>1528.413632033683</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797171</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.65004939672</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022998</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="U4" t="n">
-        <v>1711.700249712546</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="V4" t="n">
-        <v>1457.015761506659</v>
+        <v>2879.235449230111</v>
       </c>
       <c r="W4" t="n">
-        <v>1457.015761506659</v>
+        <v>2589.818279193151</v>
       </c>
       <c r="X4" t="n">
-        <v>1229.026210608642</v>
+        <v>2361.828728295133</v>
       </c>
       <c r="Y4" t="n">
-        <v>1008.233631465111</v>
+        <v>2141.036149151603</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943747</v>
+        <v>1749.723851760222</v>
       </c>
       <c r="C5" t="n">
-        <v>1308.370295943747</v>
+        <v>1380.761334819811</v>
       </c>
       <c r="D5" t="n">
-        <v>950.1045973369964</v>
+        <v>1022.49563621306</v>
       </c>
       <c r="E5" t="n">
-        <v>564.3163447387522</v>
+        <v>636.7073836148159</v>
       </c>
       <c r="F5" t="n">
-        <v>153.3304399491446</v>
+        <v>225.7214788252083</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2139.863183736034</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1749.723851760222</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478.9911633238871</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959802</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959802</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959802</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>927.7732933654346</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X7" t="n">
-        <v>699.7837424674173</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y7" t="n">
-        <v>478.9911633238871</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2182.266054653544</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1813.303537713133</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1455.037839106382</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1069.249586508138</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>658.2636817185305</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653544</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y8" t="n">
-        <v>2182.266054653544</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>866.1004720732712</v>
+        <v>679.6952191369613</v>
       </c>
       <c r="C10" t="n">
-        <v>697.1642891453644</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="D10" t="n">
-        <v>547.0476497330286</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1258.944053934704</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>1030.954503036686</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.1004720732712</v>
+        <v>861.3436839672011</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5121,22 +5121,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,16 +5273,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1097.964082041489</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
         <v>631.7012443408906</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015258</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.405126015258</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>1279.612546871728</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>184.7035232280589</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327663</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>594.8179559048594</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>444.7013164925237</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>296.7882229101306</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>149.8982754122202</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2338.476105524075</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2333.297989183966</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.222762528164</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.538274322277</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.121104285317</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.131553387299</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>721.7774158311364</v>
+        <v>1089.917939501689</v>
       </c>
       <c r="C28" t="n">
-        <v>552.8412329032295</v>
+        <v>920.9817565737817</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>770.8651171614459</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>622.9520235790528</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>476.0620760811424</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1896.309668945771</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1641.625180739884</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1352.208010702924</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="X28" t="n">
-        <v>1124.218459804906</v>
+        <v>1492.358983475458</v>
       </c>
       <c r="Y28" t="n">
-        <v>903.4258806613761</v>
+        <v>1271.566404331928</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>721.7774158311365</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>552.8412329032296</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
         <v>402.7245934908939</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2404.986360578632</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2185.384895601574</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1896.309668945771</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1641.625180739884</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1352.208010702924</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1124.218459804906</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>903.4258806613763</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,25 +6710,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>89.49689150399891</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>333.3018400921717</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>72.77348281342546</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>43.04708356698248</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6960474398191536</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>32.92052192791161</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>110.003342051663</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856639</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>139.9994244361423</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986288</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>171.2522535850804</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>53.48834544997052</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>8.661728554219451</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>205.8445769401544</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028984</v>
+        <v>274720.9666028985</v>
       </c>
       <c r="C2" t="n">
+        <v>307890.6636991062</v>
+      </c>
+      <c r="D2" t="n">
         <v>307890.6636991061</v>
       </c>
-      <c r="D2" t="n">
-        <v>307890.6636991062</v>
-      </c>
       <c r="E2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="F2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="G2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="G2" t="n">
-        <v>302679.9748837521</v>
-      </c>
       <c r="H2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="I2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="I2" t="n">
-        <v>302679.9748837524</v>
-      </c>
       <c r="J2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="K2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="M2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991059</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363162</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41698.10956062214</v>
+        <v>41698.10956062198</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26433,31 +26433,31 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683045</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
+        <v>12996.86414683041</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12996.8641468304</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12996.86414683041</v>
+      </c>
+      <c r="O4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="M4" t="n">
-        <v>12996.86414683045</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12996.86414683044</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12996.86414683045</v>
-      </c>
       <c r="P4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.7234099239</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1203655.82924671</v>
+        <v>-1203876.960560684</v>
       </c>
       <c r="C6" t="n">
+        <v>107772.8242195316</v>
+      </c>
+      <c r="D6" t="n">
         <v>107772.8242195311</v>
       </c>
-      <c r="D6" t="n">
-        <v>107772.8242195312</v>
-      </c>
       <c r="E6" t="n">
-        <v>-136851.8808943407</v>
+        <v>-136886.6188197763</v>
       </c>
       <c r="F6" t="n">
-        <v>188560.5809130146</v>
+        <v>188525.8429875791</v>
       </c>
       <c r="G6" t="n">
-        <v>188560.5809130145</v>
+        <v>188525.8429875788</v>
       </c>
       <c r="H6" t="n">
-        <v>188560.5809130147</v>
+        <v>188525.8429875792</v>
       </c>
       <c r="I6" t="n">
-        <v>188560.5809130148</v>
+        <v>188525.8429875789</v>
       </c>
       <c r="J6" t="n">
-        <v>-28970.62148426284</v>
+        <v>-29005.35940969856</v>
       </c>
       <c r="K6" t="n">
-        <v>188560.5809130145</v>
+        <v>188525.8429875791</v>
       </c>
       <c r="L6" t="n">
-        <v>188560.5809130145</v>
+        <v>188525.8429875788</v>
       </c>
       <c r="M6" t="n">
-        <v>103505.5529775029</v>
+        <v>103470.8150520671</v>
       </c>
       <c r="N6" t="n">
-        <v>188560.5809130147</v>
+        <v>188525.8429875791</v>
       </c>
       <c r="O6" t="n">
-        <v>188560.5809130145</v>
+        <v>188525.842987579</v>
       </c>
       <c r="P6" t="n">
-        <v>164311.1064416348</v>
+        <v>164311.1064416352</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26817,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>319.8921335397019</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.378278195782684</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>81.80067525430835</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>366.5485151445878</v>
+        <v>294.8813866572847</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>114.0476156916935</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>183.9407247522547</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>161.2723701802163</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>252.9025444489509</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>57.23226802582258</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>50.66994247330427</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-8.483880264975597e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28798,13 +28798,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>-9.452812155516588e-14</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>218.6425359394819</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,10 +32561,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32710,7 +32710,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33190,7 +33190,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,10 +35504,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>91.80490927281522</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,10 +36209,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
